--- a/categiries_22.03.2025.xlsx
+++ b/categiries_22.03.2025.xlsx
@@ -172,7 +172,7 @@
     <x:t>Робот-пилосос Xiaomi</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Побутова техніка	</x:t>
+    <x:t>Побутова техніка</x:t>
   </x:si>
   <x:si>
     <x:t>Пилососи</x:t>
@@ -241,13 +241,13 @@
     <x:t>sdkfm dskfl</x:t>
   </x:si>
   <x:si>
-    <x:t>Ноутбук ASUS ROG 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53000,00 грн</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,05</x:t>
+    <x:t>Ноутбук MacBook Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73000,00 грн</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Потужний ноутбук</x:t>
   </x:si>
   <x:si>
     <x:t>Смартфон iPhone 16</x:t>
@@ -256,16 +256,7 @@
     <x:t>Новий флагман від Apple</x:t>
   </x:si>
   <x:si>
-    <x:t>0,03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ноутбук MacBook Pro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73000,00 грн</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Потужний ноутбук</x:t>
+    <x:t>3%</x:t>
   </x:si>
   <x:si>
     <x:t>Телевізор Samsung 55</x:t>
@@ -280,7 +271,7 @@
     <x:t>55" Smart TV</x:t>
   </x:si>
   <x:si>
-    <x:t>0,07</x:t>
+    <x:t>7%</x:t>
   </x:si>
   <x:si>
     <x:t>Samsung</x:t>
@@ -308,9 +299,6 @@
   </x:si>
   <x:si>
     <x:t>З технологією No Frost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,1</x:t>
   </x:si>
   <x:si>
     <x:t>LG</x:t>
@@ -679,7 +667,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I42"/>
+  <x:dimension ref="A1:I20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1116,10 +1104,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>24</x:v>
@@ -1131,13 +1119,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1145,10 +1133,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>24</x:v>
@@ -1171,727 +1159,89 @@
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F18" s="0">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F19" s="0">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F20" s="0">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:9">
-      <x:c r="A21" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F21" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:9">
-      <x:c r="A22" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F22" s="0">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:9">
-      <x:c r="A23" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F23" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:9">
-      <x:c r="A24" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F24" s="0">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:9">
-      <x:c r="A25" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F25" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:9">
-      <x:c r="A26" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F26" s="0">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:9">
-      <x:c r="A27" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F27" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:9">
-      <x:c r="A28" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F28" s="0">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:9">
-      <x:c r="A29" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F29" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:9">
-      <x:c r="A30" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F30" s="0">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:9">
-      <x:c r="A31" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E31" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F31" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:9">
-      <x:c r="A32" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E32" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F32" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="I32" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:9">
-      <x:c r="A33" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F33" s="0">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:9">
-      <x:c r="A34" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E34" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="F34" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="I34" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:9">
-      <x:c r="A35" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E35" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F35" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I35" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:9">
-      <x:c r="A36" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E36" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F36" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:9">
-      <x:c r="A37" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E37" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F37" s="0">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:9">
-      <x:c r="A38" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E38" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="F38" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="I38" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:9">
-      <x:c r="A39" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C39" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F39" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I39" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:9">
-      <x:c r="A40" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C40" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F40" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G40" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:9">
-      <x:c r="A41" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E41" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F41" s="0">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G41" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I41" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:9">
-      <x:c r="A42" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C42" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="F42" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/categiries_22.03.2025.xlsx
+++ b/categiries_22.03.2025.xlsx
@@ -302,6 +302,15 @@
   </x:si>
   <x:si>
     <x:t>LG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mlechko</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hueco Mundo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No mames way</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -667,7 +676,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I20"/>
+  <x:dimension ref="A1:I21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1244,6 +1253,32 @@
         <x:v>95</x:v>
       </x:c>
     </x:row>
+    <x:row r="21" spans="1:9">
+      <x:c r="A21" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
